--- a/Ahold.xlsx
+++ b/Ahold.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOE-Load\Desktop\Ahold_20_10_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOE-Load\Desktop\Ahold_22_10_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="146">
   <si>
     <t>skuid</t>
   </si>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
@@ -1037,8 +1037,8 @@
       <c r="J2">
         <v>250</v>
       </c>
-      <c r="K2">
-        <v>43465</v>
+      <c r="K2" s="3">
+        <v>43424</v>
       </c>
       <c r="L2" t="s">
         <v>65</v>
@@ -1081,8 +1081,8 @@
       <c r="J3">
         <v>500</v>
       </c>
-      <c r="K3">
-        <v>43465</v>
+      <c r="K3" s="3">
+        <v>43464</v>
       </c>
       <c r="L3" t="s">
         <v>66</v>
@@ -1125,8 +1125,8 @@
       <c r="J4">
         <v>350</v>
       </c>
-      <c r="K4">
-        <v>43465</v>
+      <c r="K4" s="3">
+        <v>43464</v>
       </c>
       <c r="L4" t="s">
         <v>67</v>
@@ -1169,8 +1169,8 @@
       <c r="J5">
         <v>275</v>
       </c>
-      <c r="K5">
-        <v>43465</v>
+      <c r="K5" s="3">
+        <v>43464</v>
       </c>
       <c r="L5" t="s">
         <v>68</v>
@@ -1213,8 +1213,8 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>43465</v>
+      <c r="K6" s="3">
+        <v>43424</v>
       </c>
       <c r="L6" t="s">
         <v>69</v>
@@ -1257,8 +1257,8 @@
       <c r="J7">
         <v>80</v>
       </c>
-      <c r="K7">
-        <v>43465</v>
+      <c r="K7" s="3">
+        <v>43464</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -1301,8 +1301,8 @@
       <c r="J8">
         <v>789</v>
       </c>
-      <c r="K8">
-        <v>43465</v>
+      <c r="K8" s="3">
+        <v>43464</v>
       </c>
       <c r="L8" t="s">
         <v>72</v>
@@ -1345,8 +1345,8 @@
       <c r="J9">
         <v>28</v>
       </c>
-      <c r="K9">
-        <v>43465</v>
+      <c r="K9" s="3">
+        <v>43464</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
@@ -1389,8 +1389,8 @@
       <c r="J10">
         <v>123</v>
       </c>
-      <c r="K10">
-        <v>43465</v>
+      <c r="K10" s="3">
+        <v>43464</v>
       </c>
       <c r="L10" t="s">
         <v>74</v>
@@ -1433,8 +1433,8 @@
       <c r="J11">
         <v>432</v>
       </c>
-      <c r="K11">
-        <v>43465</v>
+      <c r="K11" s="3">
+        <v>43464</v>
       </c>
       <c r="L11" t="s">
         <v>75</v>
@@ -1477,8 +1477,8 @@
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12">
-        <v>43465</v>
+      <c r="K12" s="3">
+        <v>43464</v>
       </c>
       <c r="L12" t="s">
         <v>70</v>
@@ -1521,8 +1521,8 @@
       <c r="J13">
         <v>23</v>
       </c>
-      <c r="K13">
-        <v>43465</v>
+      <c r="K13" s="3">
+        <v>43464</v>
       </c>
       <c r="L13" t="s">
         <v>76</v>
@@ -1565,8 +1565,8 @@
       <c r="J14">
         <v>4</v>
       </c>
-      <c r="K14">
-        <v>43465</v>
+      <c r="K14" s="3">
+        <v>43464</v>
       </c>
       <c r="L14" t="s">
         <v>77</v>
@@ -1609,8 +1609,8 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15">
-        <v>43465</v>
+      <c r="K15" s="3">
+        <v>43464</v>
       </c>
       <c r="L15" t="s">
         <v>71</v>
@@ -1656,8 +1656,8 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>43465</v>
+      <c r="K16" s="3">
+        <v>43464</v>
       </c>
       <c r="L16" t="s">
         <v>78</v>
@@ -1703,8 +1703,8 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>43465</v>
+      <c r="K17" s="3">
+        <v>43464</v>
       </c>
       <c r="L17" t="s">
         <v>79</v>
@@ -1750,8 +1750,8 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>43465</v>
+      <c r="K18" s="3">
+        <v>43464</v>
       </c>
       <c r="L18" t="s">
         <v>80</v>
@@ -1797,8 +1797,8 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>43465</v>
+      <c r="K19" s="3">
+        <v>43464</v>
       </c>
       <c r="L19" t="s">
         <v>81</v>
@@ -1844,8 +1844,8 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>43465</v>
+      <c r="K20" s="3">
+        <v>43464</v>
       </c>
       <c r="L20" t="s">
         <v>79</v>
@@ -1891,11 +1891,14 @@
       <c r="J21">
         <v>20</v>
       </c>
-      <c r="K21">
-        <v>43465</v>
+      <c r="K21" s="3">
+        <v>43464</v>
       </c>
       <c r="L21" t="s">
         <v>71</v>
+      </c>
+      <c r="M21" t="s">
+        <v>111</v>
       </c>
       <c r="N21" t="s">
         <v>118</v>
@@ -1935,8 +1938,8 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>43465</v>
+      <c r="K22" s="3">
+        <v>43464</v>
       </c>
       <c r="L22" t="s">
         <v>123</v>
@@ -1982,8 +1985,8 @@
       <c r="J23">
         <v>5</v>
       </c>
-      <c r="K23">
-        <v>43465</v>
+      <c r="K23" s="3">
+        <v>43464</v>
       </c>
       <c r="L23" t="s">
         <v>128</v>
@@ -2029,8 +2032,8 @@
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="K24">
-        <v>43465</v>
+      <c r="K24" s="3">
+        <v>43464</v>
       </c>
       <c r="L24" t="s">
         <v>123</v>
@@ -2076,11 +2079,14 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>43465</v>
+      <c r="K25" s="3">
+        <v>43464</v>
       </c>
       <c r="L25" t="s">
         <v>79</v>
+      </c>
+      <c r="M25" t="s">
+        <v>112</v>
       </c>
       <c r="N25" t="s">
         <v>135</v>
@@ -2114,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Ahold.xlsx
+++ b/Ahold.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOE-Load\Desktop\Ahold_22_10_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOE-Load\Desktop\Ahold_20_10_2018-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="148">
   <si>
     <t>skuid</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>Silver Spring Wasabi sauce</t>
+  </si>
+  <si>
+    <t>20 th November</t>
+  </si>
+  <si>
+    <t>30 th December</t>
   </si>
 </sst>
 </file>
@@ -936,7 +942,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,8 +1043,8 @@
       <c r="J2">
         <v>250</v>
       </c>
-      <c r="K2" s="3">
-        <v>43424</v>
+      <c r="K2" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="L2" t="s">
         <v>65</v>
@@ -1081,8 +1087,8 @@
       <c r="J3">
         <v>500</v>
       </c>
-      <c r="K3" s="3">
-        <v>43464</v>
+      <c r="K3" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L3" t="s">
         <v>66</v>
@@ -1125,8 +1131,8 @@
       <c r="J4">
         <v>350</v>
       </c>
-      <c r="K4" s="3">
-        <v>43464</v>
+      <c r="K4" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L4" t="s">
         <v>67</v>
@@ -1169,8 +1175,8 @@
       <c r="J5">
         <v>275</v>
       </c>
-      <c r="K5" s="3">
-        <v>43464</v>
+      <c r="K5" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L5" t="s">
         <v>68</v>
@@ -1213,8 +1219,8 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
-        <v>43424</v>
+      <c r="K6" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="L6" t="s">
         <v>69</v>
@@ -1257,8 +1263,8 @@
       <c r="J7">
         <v>80</v>
       </c>
-      <c r="K7" s="3">
-        <v>43464</v>
+      <c r="K7" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -1301,8 +1307,8 @@
       <c r="J8">
         <v>789</v>
       </c>
-      <c r="K8" s="3">
-        <v>43464</v>
+      <c r="K8" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L8" t="s">
         <v>72</v>
@@ -1345,8 +1351,8 @@
       <c r="J9">
         <v>28</v>
       </c>
-      <c r="K9" s="3">
-        <v>43464</v>
+      <c r="K9" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
@@ -1389,8 +1395,8 @@
       <c r="J10">
         <v>123</v>
       </c>
-      <c r="K10" s="3">
-        <v>43464</v>
+      <c r="K10" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L10" t="s">
         <v>74</v>
@@ -1433,8 +1439,8 @@
       <c r="J11">
         <v>432</v>
       </c>
-      <c r="K11" s="3">
-        <v>43464</v>
+      <c r="K11" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L11" t="s">
         <v>75</v>
@@ -1477,8 +1483,8 @@
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="3">
-        <v>43464</v>
+      <c r="K12" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L12" t="s">
         <v>70</v>
@@ -1521,8 +1527,8 @@
       <c r="J13">
         <v>23</v>
       </c>
-      <c r="K13" s="3">
-        <v>43464</v>
+      <c r="K13" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L13" t="s">
         <v>76</v>
@@ -1565,8 +1571,8 @@
       <c r="J14">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>43464</v>
+      <c r="K14" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L14" t="s">
         <v>77</v>
@@ -1609,8 +1615,8 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="3">
-        <v>43464</v>
+      <c r="K15" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L15" t="s">
         <v>71</v>
@@ -1656,8 +1662,8 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="3">
-        <v>43464</v>
+      <c r="K16" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L16" t="s">
         <v>78</v>
@@ -1703,8 +1709,8 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" s="3">
-        <v>43464</v>
+      <c r="K17" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L17" t="s">
         <v>79</v>
@@ -1750,8 +1756,8 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
-        <v>43464</v>
+      <c r="K18" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L18" t="s">
         <v>80</v>
@@ -1797,8 +1803,8 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
-        <v>43464</v>
+      <c r="K19" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L19" t="s">
         <v>81</v>
@@ -1844,8 +1850,8 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20" s="3">
-        <v>43464</v>
+      <c r="K20" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L20" t="s">
         <v>79</v>
@@ -1891,8 +1897,8 @@
       <c r="J21">
         <v>20</v>
       </c>
-      <c r="K21" s="3">
-        <v>43464</v>
+      <c r="K21" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L21" t="s">
         <v>71</v>
@@ -1938,8 +1944,8 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22" s="3">
-        <v>43464</v>
+      <c r="K22" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L22" t="s">
         <v>123</v>
@@ -1985,8 +1991,8 @@
       <c r="J23">
         <v>5</v>
       </c>
-      <c r="K23" s="3">
-        <v>43464</v>
+      <c r="K23" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L23" t="s">
         <v>128</v>
@@ -2032,8 +2038,8 @@
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>43464</v>
+      <c r="K24" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="L24" t="s">
         <v>123</v>
@@ -2079,8 +2085,8 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" s="3">
-        <v>43464</v>
+      <c r="K25" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="L25" t="s">
         <v>79</v>
